--- a/Code/Results/Cases/Case_3_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012448661984763</v>
+        <v>0.3851828718437105</v>
       </c>
       <c r="C2">
-        <v>0.1397812435558308</v>
+        <v>0.04719667549206008</v>
       </c>
       <c r="D2">
-        <v>0.06426856904651856</v>
+        <v>0.03340922047932793</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5040493923782634</v>
+        <v>0.7560649971391413</v>
       </c>
       <c r="G2">
-        <v>0.4012021652956008</v>
+        <v>0.5978842922277039</v>
       </c>
       <c r="H2">
-        <v>0.3281638755231313</v>
+        <v>0.7225724990014584</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.055791827290221</v>
+        <v>0.3558879256252396</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7125905198253708</v>
+        <v>1.394472939126404</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.878550011839593</v>
+        <v>0.3463348696886612</v>
       </c>
       <c r="C3">
-        <v>0.1235681529932151</v>
+        <v>0.0420562393364321</v>
       </c>
       <c r="D3">
-        <v>0.05849951641157247</v>
+        <v>0.03138271161257222</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4797282515726522</v>
+        <v>0.7560987703498228</v>
       </c>
       <c r="G3">
-        <v>0.3864003296881435</v>
+        <v>0.5995907309549438</v>
       </c>
       <c r="H3">
-        <v>0.3280827490994298</v>
+        <v>0.7276681375629295</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9167175707812873</v>
+        <v>0.3145961407293498</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7534519656467031</v>
+        <v>1.411309502454069</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7966706483865948</v>
+        <v>0.3225625386358502</v>
       </c>
       <c r="C4">
-        <v>0.1136153000313982</v>
+        <v>0.0388811973444092</v>
       </c>
       <c r="D4">
-        <v>0.05494391733954984</v>
+        <v>0.03012772173290301</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4659400001764098</v>
+        <v>0.7566338666132495</v>
       </c>
       <c r="G4">
-        <v>0.3784202419497547</v>
+        <v>0.6010954284440473</v>
       </c>
       <c r="H4">
-        <v>0.3287040467363127</v>
+        <v>0.7311544763514277</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8315848695374086</v>
+        <v>0.2892637444360844</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7796915052464071</v>
+        <v>1.422189524381263</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7633731232535581</v>
+        <v>0.3128957747833283</v>
       </c>
       <c r="C5">
-        <v>0.1095583116964605</v>
+        <v>0.03758265852414411</v>
       </c>
       <c r="D5">
-        <v>0.05349139549454662</v>
+        <v>0.029613640904536</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4605934780681835</v>
+        <v>0.7569811729353617</v>
       </c>
       <c r="G5">
-        <v>0.3754315961016772</v>
+        <v>0.6018233213239768</v>
       </c>
       <c r="H5">
-        <v>0.3291190807925091</v>
+        <v>0.7326651128339421</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7969424729116383</v>
+        <v>0.2789462549932864</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7906659689950732</v>
+        <v>1.42675954768505</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7578478308881245</v>
+        <v>0.3112918756095837</v>
       </c>
       <c r="C6">
-        <v>0.1088845383281551</v>
+        <v>0.03736675552404733</v>
       </c>
       <c r="D6">
-        <v>0.05324998254774727</v>
+        <v>0.02952811825511503</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4597216959928545</v>
+        <v>0.7570466466670567</v>
       </c>
       <c r="G6">
-        <v>0.3749508010133411</v>
+        <v>0.6019511105811617</v>
       </c>
       <c r="H6">
-        <v>0.3291975767448818</v>
+        <v>0.7329213842771694</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7911927082811303</v>
+        <v>0.2772333980130384</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7925050640283393</v>
+        <v>1.427526629181634</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7962213265722369</v>
+        <v>0.3224320851041966</v>
       </c>
       <c r="C7">
-        <v>0.1135605926921954</v>
+        <v>0.03886370370342718</v>
       </c>
       <c r="D7">
-        <v>0.05492434292559523</v>
+        <v>0.03012079939917811</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4658668126664409</v>
+        <v>0.7566380272978108</v>
       </c>
       <c r="G7">
-        <v>0.3783788897031926</v>
+        <v>0.6011047808242296</v>
       </c>
       <c r="H7">
-        <v>0.3287089975826163</v>
+        <v>0.7311744852144315</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8311174878398333</v>
+        <v>0.2891245756789544</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7798383801886954</v>
+        <v>1.422250605389106</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9662014169954318</v>
+        <v>0.3717716079278546</v>
       </c>
       <c r="C8">
-        <v>0.1341895242126157</v>
+        <v>0.04542817758625972</v>
       </c>
       <c r="D8">
-        <v>0.06228203568812063</v>
+        <v>0.03271271930164232</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4954161648557971</v>
+        <v>0.7559698305817548</v>
       </c>
       <c r="G8">
-        <v>0.3958589645338861</v>
+        <v>0.5983777227826153</v>
       </c>
       <c r="H8">
-        <v>0.327992350426058</v>
+        <v>0.7242552584460498</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.007775616485219</v>
+        <v>0.341646405524358</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7264360567884731</v>
+        <v>1.400165607925306</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.302934645624362</v>
+        <v>0.4691518145274074</v>
       </c>
       <c r="C9">
-        <v>0.1747398529755202</v>
+        <v>0.05815070039616899</v>
       </c>
       <c r="D9">
-        <v>0.07661582020565305</v>
+        <v>0.03770944348285354</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5631939131588055</v>
+        <v>0.7587459197177182</v>
       </c>
       <c r="G9">
-        <v>0.4396654003631113</v>
+        <v>0.5966646108615379</v>
       </c>
       <c r="H9">
-        <v>0.3322412814232081</v>
+        <v>0.7135241037649109</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.357013141643733</v>
+        <v>0.4447948646547673</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6312032806576102</v>
+        <v>1.361161123346418</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.553531334675228</v>
+        <v>0.5410679625573209</v>
       </c>
       <c r="C10">
-        <v>0.2047146170242655</v>
+        <v>0.06740540999074085</v>
       </c>
       <c r="D10">
-        <v>0.08710737626383036</v>
+        <v>0.04132696727250362</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6200867980000169</v>
+        <v>0.7632856007728321</v>
       </c>
       <c r="G10">
-        <v>0.4787429843750175</v>
+        <v>0.5976353558816356</v>
       </c>
       <c r="H10">
-        <v>0.3392961429688199</v>
+        <v>0.7073701825558345</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.616450276984807</v>
+        <v>0.5206618939738803</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5675471352675974</v>
+        <v>1.335129157719072</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.668498459657485</v>
+        <v>0.5738632381134039</v>
       </c>
       <c r="C11">
-        <v>0.2184204676289028</v>
+        <v>0.071595398280067</v>
       </c>
       <c r="D11">
-        <v>0.09187612507525245</v>
+        <v>0.04296082115263289</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6477722095040548</v>
+        <v>0.765895706322965</v>
       </c>
       <c r="G11">
-        <v>0.4982754206525755</v>
+        <v>0.598564046568967</v>
       </c>
       <c r="H11">
-        <v>0.3434755151606481</v>
+        <v>0.7049464614474061</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.735367926088458</v>
+        <v>0.5551923891478339</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5400839987200108</v>
+        <v>1.323856623397912</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.712196682407011</v>
+        <v>0.5862931773230855</v>
       </c>
       <c r="C12">
-        <v>0.2236232714856925</v>
+        <v>0.07317912695855</v>
       </c>
       <c r="D12">
-        <v>0.09368174197412316</v>
+        <v>0.04357779980625764</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6585389216313331</v>
+        <v>0.7669625838736636</v>
       </c>
       <c r="G12">
-        <v>0.5059475120317103</v>
+        <v>0.5989859830099107</v>
       </c>
       <c r="H12">
-        <v>0.3452080546360747</v>
+        <v>0.7040827011807238</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.780552285688628</v>
+        <v>0.5682704967931045</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5299107212108822</v>
+        <v>1.319669960309147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.702777864396495</v>
+        <v>0.5836156820700751</v>
       </c>
       <c r="C13">
-        <v>0.2225021461313759</v>
+        <v>0.0728381737012711</v>
       </c>
       <c r="D13">
-        <v>0.09329287316542434</v>
+        <v>0.04344499971818294</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6562071480141896</v>
+        <v>0.7667293200709224</v>
       </c>
       <c r="G13">
-        <v>0.5042825476712522</v>
+        <v>0.5988919830905957</v>
       </c>
       <c r="H13">
-        <v>0.3448280805251471</v>
+        <v>0.7042663231686817</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.77081383251226</v>
+        <v>0.5654538036269514</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5320914563530845</v>
+        <v>1.320567984439617</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.672090139154051</v>
+        <v>0.5748856372747184</v>
       </c>
       <c r="C14">
-        <v>0.2188482352987222</v>
+        <v>0.07172575157501626</v>
       </c>
       <c r="D14">
-        <v>0.09202467621465615</v>
+        <v>0.04301161514501928</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6486521849748357</v>
+        <v>0.7659819052991139</v>
       </c>
       <c r="G14">
-        <v>0.4989009469274635</v>
+        <v>0.5985973501448001</v>
       </c>
       <c r="H14">
-        <v>0.3436149856675712</v>
+        <v>0.7048743159999731</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.739082065801085</v>
+        <v>0.5562682923056457</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5392424304099759</v>
+        <v>1.32351054008809</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.653314925685663</v>
+        <v>0.5695396620257327</v>
       </c>
       <c r="C15">
-        <v>0.2166118437628342</v>
+        <v>0.07104397800232221</v>
       </c>
       <c r="D15">
-        <v>0.09124785341249719</v>
+        <v>0.04274592877990102</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6440621086535145</v>
+        <v>0.7655343170544597</v>
       </c>
       <c r="G15">
-        <v>0.4956411637741525</v>
+        <v>0.5984260355240991</v>
       </c>
       <c r="H15">
-        <v>0.3428917734091073</v>
+        <v>0.705253768740306</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.719666077459692</v>
+        <v>0.5506421688681371</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5436524505646858</v>
+        <v>1.325323622421079</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.546039419660474</v>
+        <v>0.5389262897916751</v>
       </c>
       <c r="C16">
-        <v>0.2038205373452513</v>
+        <v>0.06713117722304673</v>
       </c>
       <c r="D16">
-        <v>0.08679567851606862</v>
+        <v>0.04121995129652589</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6183157625284466</v>
+        <v>0.7631260009013303</v>
       </c>
       <c r="G16">
-        <v>0.4775037624807368</v>
+        <v>0.5975844839838942</v>
       </c>
       <c r="H16">
-        <v>0.3390434042082831</v>
+        <v>0.7075361408381582</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.608698786956921</v>
+        <v>0.5184055719682021</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5693729535539429</v>
+        <v>1.335877313571251</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.480493681750545</v>
+        <v>0.5201662059066336</v>
       </c>
       <c r="C17">
-        <v>0.1959932455244058</v>
+        <v>0.06472563657227681</v>
       </c>
       <c r="D17">
-        <v>0.0840636569032398</v>
+        <v>0.0402807739600064</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6029995071173104</v>
+        <v>0.7617882451964917</v>
       </c>
       <c r="G17">
-        <v>0.4668426866455491</v>
+        <v>0.5971931311297567</v>
       </c>
       <c r="H17">
-        <v>0.336938186511631</v>
+        <v>0.709032550133486</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.540870310070744</v>
+        <v>0.4986337996756163</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5855423446602721</v>
+        <v>1.342497605303754</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.442883262363893</v>
+        <v>0.5093834838041573</v>
       </c>
       <c r="C18">
-        <v>0.1914976316822816</v>
+        <v>0.06334015126404324</v>
       </c>
       <c r="D18">
-        <v>0.08249187893974153</v>
+        <v>0.03973947756755081</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5943583624311444</v>
+        <v>0.761070092682381</v>
       </c>
       <c r="G18">
-        <v>0.4608745093887734</v>
+        <v>0.5970138699255045</v>
       </c>
       <c r="H18">
-        <v>0.3358179637537262</v>
+        <v>0.7099286092477115</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.501940206895853</v>
+        <v>0.4872633400198936</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5949824710538731</v>
+        <v>1.346359023267631</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.430163755203523</v>
+        <v>0.505733955621821</v>
       </c>
       <c r="C19">
-        <v>0.1899765238503193</v>
+        <v>0.06287072802152238</v>
       </c>
       <c r="D19">
-        <v>0.08195962426982106</v>
+        <v>0.03955601488681992</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5914608503217096</v>
+        <v>0.7608357438929971</v>
       </c>
       <c r="G19">
-        <v>0.4588812414499444</v>
+        <v>0.5969610406477841</v>
       </c>
       <c r="H19">
-        <v>0.3354539385534565</v>
+        <v>0.710238072646419</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.488772714213781</v>
+        <v>0.4834138107190711</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5982024287456458</v>
+        <v>1.347675636044025</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.487461685058292</v>
+        <v>0.5221624674957184</v>
       </c>
       <c r="C20">
-        <v>0.1968257896783996</v>
+        <v>0.06498190561369199</v>
       </c>
       <c r="D20">
-        <v>0.08435452327450577</v>
+        <v>0.04038086574193045</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6046123600510853</v>
+        <v>0.7619253424676486</v>
       </c>
       <c r="G20">
-        <v>0.4679604625178655</v>
+        <v>0.5972300460175006</v>
       </c>
       <c r="H20">
-        <v>0.3371528363422271</v>
+        <v>0.7088695946087853</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.548082007074584</v>
+        <v>0.5007383617446237</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5838065231896916</v>
+        <v>1.341787315683783</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.681099259090189</v>
+        <v>0.5774495660170089</v>
       </c>
       <c r="C21">
-        <v>0.2199211110861654</v>
+        <v>0.07205257680190869</v>
       </c>
       <c r="D21">
-        <v>0.09239717896141997</v>
+        <v>0.04313895781415766</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6508633899219802</v>
+        <v>0.7661993080667173</v>
       </c>
       <c r="G21">
-        <v>0.5004739819612638</v>
+        <v>0.5986819823754104</v>
       </c>
       <c r="H21">
-        <v>0.3439671460479872</v>
+        <v>0.7046942666885201</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.748398109787018</v>
+        <v>0.5589662447198691</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.537135775204467</v>
+        <v>1.322644013853003</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.808612837722023</v>
+        <v>0.6136472499030958</v>
       </c>
       <c r="C22">
-        <v>0.2350906081238975</v>
+        <v>0.07665657412995586</v>
       </c>
       <c r="D22">
-        <v>0.09765251309079304</v>
+        <v>0.04493145266142307</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6827518290889998</v>
+        <v>0.7694501300638166</v>
       </c>
       <c r="G22">
-        <v>0.5233416925604502</v>
+        <v>0.6000405446515202</v>
       </c>
       <c r="H22">
-        <v>0.349299819720656</v>
+        <v>0.7022805051010721</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.880219356125593</v>
+        <v>0.5970339004962852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5079594160274272</v>
+        <v>1.310610773533121</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.74046043006436</v>
+        <v>0.5943221274967527</v>
       </c>
       <c r="C23">
-        <v>0.2269865473879236</v>
+        <v>0.07420091459050582</v>
       </c>
       <c r="D23">
-        <v>0.0948476085062282</v>
+        <v>0.04397569742967988</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6655722538000219</v>
+        <v>0.7676732011481988</v>
       </c>
       <c r="G23">
-        <v>0.5109806219968505</v>
+        <v>0.5992779007143554</v>
       </c>
       <c r="H23">
-        <v>0.3463695922896335</v>
+        <v>0.7035399403679463</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.809772951597296</v>
+        <v>0.5767154962776715</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5234060648055028</v>
+        <v>1.316989367545462</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.484311226061209</v>
+        <v>0.521259949187538</v>
       </c>
       <c r="C24">
-        <v>0.1964493829540856</v>
+        <v>0.06486605418915303</v>
       </c>
       <c r="D24">
-        <v>0.08422302604824949</v>
+        <v>0.04033561845225364</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6038826789959089</v>
+        <v>0.7618632021222851</v>
       </c>
       <c r="G24">
-        <v>0.467454616239678</v>
+        <v>0.5972132143584759</v>
       </c>
       <c r="H24">
-        <v>0.3370555133060833</v>
+        <v>0.7089431554315411</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.54482139694386</v>
+        <v>0.4997868998043771</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5845908400122948</v>
+        <v>1.342108265294405</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.211363561017635</v>
+        <v>0.4427419971639779</v>
       </c>
       <c r="C25">
-        <v>0.163747355511461</v>
+        <v>0.05472510881656945</v>
       </c>
       <c r="D25">
-        <v>0.07274648319841504</v>
+        <v>0.03636702338749132</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5436960847369292</v>
+        <v>0.757556512471723</v>
       </c>
       <c r="G25">
-        <v>0.4266868442493603</v>
+        <v>0.5967375323810842</v>
       </c>
       <c r="H25">
-        <v>0.3304382346230597</v>
+        <v>0.7161233506380995</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.262121327246746</v>
+        <v>0.4168750526334577</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.655898141507981</v>
+        <v>1.37125202053236</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3851828718437105</v>
+        <v>1.012448661984649</v>
       </c>
       <c r="C2">
-        <v>0.04719667549206008</v>
+        <v>0.1397812435558308</v>
       </c>
       <c r="D2">
-        <v>0.03340922047932793</v>
+        <v>0.06426856904663936</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7560649971391413</v>
+        <v>0.5040493923782634</v>
       </c>
       <c r="G2">
-        <v>0.5978842922277039</v>
+        <v>0.4012021652955582</v>
       </c>
       <c r="H2">
-        <v>0.7225724990014584</v>
+        <v>0.3281638755231313</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3558879256252396</v>
+        <v>1.055791827290079</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.394472939126404</v>
+        <v>0.7125905198254285</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3463348696886612</v>
+        <v>0.8785500118396214</v>
       </c>
       <c r="C3">
-        <v>0.0420562393364321</v>
+        <v>0.1235681529933714</v>
       </c>
       <c r="D3">
-        <v>0.03138271161257222</v>
+        <v>0.0584995164114801</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7560987703498228</v>
+        <v>0.4797282515726451</v>
       </c>
       <c r="G3">
-        <v>0.5995907309549438</v>
+        <v>0.3864003296882288</v>
       </c>
       <c r="H3">
-        <v>0.7276681375629295</v>
+        <v>0.3280827490994298</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3145961407293498</v>
+        <v>0.9167175707811737</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.411309502454069</v>
+        <v>0.7534519656466943</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3225625386358502</v>
+        <v>0.7966706483866801</v>
       </c>
       <c r="C4">
-        <v>0.0388811973444092</v>
+        <v>0.1136153000316256</v>
       </c>
       <c r="D4">
-        <v>0.03012772173290301</v>
+        <v>0.05494391733956405</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7566338666132495</v>
+        <v>0.4659400001764169</v>
       </c>
       <c r="G4">
-        <v>0.6010954284440473</v>
+        <v>0.3784202419497547</v>
       </c>
       <c r="H4">
-        <v>0.7311544763514277</v>
+        <v>0.3287040467364193</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2892637444360844</v>
+        <v>0.8315848695374655</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.422189524381263</v>
+        <v>0.7796915052464186</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3128957747833283</v>
+        <v>0.7633731232535865</v>
       </c>
       <c r="C5">
-        <v>0.03758265852414411</v>
+        <v>0.1095583116964463</v>
       </c>
       <c r="D5">
-        <v>0.029613640904536</v>
+        <v>0.05349139549493032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7569811729353617</v>
+        <v>0.4605934780682119</v>
       </c>
       <c r="G5">
-        <v>0.6018233213239768</v>
+        <v>0.3754315961016843</v>
       </c>
       <c r="H5">
-        <v>0.7326651128339421</v>
+        <v>0.3291190807925162</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2789462549932864</v>
+        <v>0.796942472911752</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.42675954768505</v>
+        <v>0.7906659689950333</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3112918756095837</v>
+        <v>0.7578478308881529</v>
       </c>
       <c r="C6">
-        <v>0.03736675552404733</v>
+        <v>0.1088845383279278</v>
       </c>
       <c r="D6">
-        <v>0.02952811825511503</v>
+        <v>0.05324998254760516</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7570466466670567</v>
+        <v>0.4597216959928474</v>
       </c>
       <c r="G6">
-        <v>0.6019511105811617</v>
+        <v>0.3749508010133624</v>
       </c>
       <c r="H6">
-        <v>0.7329213842771694</v>
+        <v>0.3291975767449742</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2772333980130384</v>
+        <v>0.791192708281045</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.427526629181634</v>
+        <v>0.7925050640283304</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3224320851041966</v>
+        <v>0.7962213265724927</v>
       </c>
       <c r="C7">
-        <v>0.03886370370342718</v>
+        <v>0.1135605926921812</v>
       </c>
       <c r="D7">
-        <v>0.03012079939917811</v>
+        <v>0.05492434292574444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7566380272978108</v>
+        <v>0.4658668126664409</v>
       </c>
       <c r="G7">
-        <v>0.6011047808242296</v>
+        <v>0.3783788897031357</v>
       </c>
       <c r="H7">
-        <v>0.7311744852144315</v>
+        <v>0.32870899758273</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2891245756789544</v>
+        <v>0.8311174878398901</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.422250605389106</v>
+        <v>0.779838380188715</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3717716079278546</v>
+        <v>0.9662014169952897</v>
       </c>
       <c r="C8">
-        <v>0.04542817758625972</v>
+        <v>0.1341895242120472</v>
       </c>
       <c r="D8">
-        <v>0.03271271930164232</v>
+        <v>0.06228203568826984</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7559698305817548</v>
+        <v>0.4954161648557829</v>
       </c>
       <c r="G8">
-        <v>0.5983777227826153</v>
+        <v>0.3958589645338435</v>
       </c>
       <c r="H8">
-        <v>0.7242552584460498</v>
+        <v>0.327992350426058</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.341646405524358</v>
+        <v>1.007775616485162</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.400165607925306</v>
+        <v>0.726436056788458</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4691518145274074</v>
+        <v>1.302934645624248</v>
       </c>
       <c r="C9">
-        <v>0.05815070039616899</v>
+        <v>0.1747398529752786</v>
       </c>
       <c r="D9">
-        <v>0.03770944348285354</v>
+        <v>0.07661582020570279</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7587459197177182</v>
+        <v>0.5631939131588055</v>
       </c>
       <c r="G9">
-        <v>0.5966646108615379</v>
+        <v>0.4396654003631113</v>
       </c>
       <c r="H9">
-        <v>0.7135241037649109</v>
+        <v>0.3322412814230944</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4447948646547673</v>
+        <v>1.357013141643733</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.361161123346418</v>
+        <v>0.6312032806576724</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5410679625573209</v>
+        <v>1.553531334675313</v>
       </c>
       <c r="C10">
-        <v>0.06740540999074085</v>
+        <v>0.2047146170245782</v>
       </c>
       <c r="D10">
-        <v>0.04132696727250362</v>
+        <v>0.08710737626382326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7632856007728321</v>
+        <v>0.6200867980000169</v>
       </c>
       <c r="G10">
-        <v>0.5976353558816356</v>
+        <v>0.4787429843750743</v>
       </c>
       <c r="H10">
-        <v>0.7073701825558345</v>
+        <v>0.3392961429688199</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5206618939738803</v>
+        <v>1.616450276984779</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.335129157719072</v>
+        <v>0.5675471352675761</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5738632381134039</v>
+        <v>1.668498459657542</v>
       </c>
       <c r="C11">
-        <v>0.071595398280067</v>
+        <v>0.2184204676291301</v>
       </c>
       <c r="D11">
-        <v>0.04296082115263289</v>
+        <v>0.09187612507536613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.765895706322965</v>
+        <v>0.6477722095040406</v>
       </c>
       <c r="G11">
-        <v>0.598564046568967</v>
+        <v>0.498275420652547</v>
       </c>
       <c r="H11">
-        <v>0.7049464614474061</v>
+        <v>0.3434755151606481</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5551923891478339</v>
+        <v>1.735367926088458</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.323856623397912</v>
+        <v>0.5400839987200641</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5862931773230855</v>
+        <v>1.712196682406898</v>
       </c>
       <c r="C12">
-        <v>0.07317912695855</v>
+        <v>0.2236232714854509</v>
       </c>
       <c r="D12">
-        <v>0.04357779980625764</v>
+        <v>0.09368174197407342</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7669625838736636</v>
+        <v>0.6585389216313189</v>
       </c>
       <c r="G12">
-        <v>0.5989859830099107</v>
+        <v>0.5059475120316819</v>
       </c>
       <c r="H12">
-        <v>0.7040827011807238</v>
+        <v>0.3452080546360889</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5682704967931045</v>
+        <v>1.780552285688657</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.319669960309147</v>
+        <v>0.5299107212108698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5836156820700751</v>
+        <v>1.702777864396438</v>
       </c>
       <c r="C13">
-        <v>0.0728381737012711</v>
+        <v>0.2225021461315322</v>
       </c>
       <c r="D13">
-        <v>0.04344499971818294</v>
+        <v>0.09329287316525381</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7667293200709224</v>
+        <v>0.6562071480141896</v>
       </c>
       <c r="G13">
-        <v>0.5988919830905957</v>
+        <v>0.504282547671238</v>
       </c>
       <c r="H13">
-        <v>0.7042663231686817</v>
+        <v>0.3448280805251471</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5654538036269514</v>
+        <v>1.770813832512317</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.320567984439617</v>
+        <v>0.5320914563530277</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5748856372747184</v>
+        <v>1.67209013915388</v>
       </c>
       <c r="C14">
-        <v>0.07172575157501626</v>
+        <v>0.2188482352982675</v>
       </c>
       <c r="D14">
-        <v>0.04301161514501928</v>
+        <v>0.09202467621466326</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7659819052991139</v>
+        <v>0.6486521849748357</v>
       </c>
       <c r="G14">
-        <v>0.5985973501448001</v>
+        <v>0.498900946927435</v>
       </c>
       <c r="H14">
-        <v>0.7048743159999731</v>
+        <v>0.3436149856677133</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5562682923056457</v>
+        <v>1.739082065801028</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.32351054008809</v>
+        <v>0.5392424304099777</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5695396620257327</v>
+        <v>1.653314925685464</v>
       </c>
       <c r="C15">
-        <v>0.07104397800232221</v>
+        <v>0.2166118437621805</v>
       </c>
       <c r="D15">
-        <v>0.04274592877990102</v>
+        <v>0.0912478534127672</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7655343170544597</v>
+        <v>0.644062108653543</v>
       </c>
       <c r="G15">
-        <v>0.5984260355240991</v>
+        <v>0.4956411637741525</v>
       </c>
       <c r="H15">
-        <v>0.705253768740306</v>
+        <v>0.342891773409093</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5506421688681371</v>
+        <v>1.719666077459721</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.325323622421079</v>
+        <v>0.5436524505646894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5389262897916751</v>
+        <v>1.546039419660644</v>
       </c>
       <c r="C16">
-        <v>0.06713117722304673</v>
+        <v>0.2038205373450239</v>
       </c>
       <c r="D16">
-        <v>0.04121995129652589</v>
+        <v>0.08679567851596204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7631260009013303</v>
+        <v>0.6183157625284608</v>
       </c>
       <c r="G16">
-        <v>0.5975844839838942</v>
+        <v>0.4775037624807794</v>
       </c>
       <c r="H16">
-        <v>0.7075361408381582</v>
+        <v>0.3390434042083967</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5184055719682021</v>
+        <v>1.608698786956779</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.335877313571251</v>
+        <v>0.5693729535539429</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5201662059066336</v>
+        <v>1.480493681750573</v>
       </c>
       <c r="C17">
-        <v>0.06472563657227681</v>
+        <v>0.1959932455246474</v>
       </c>
       <c r="D17">
-        <v>0.0402807739600064</v>
+        <v>0.08406365690307638</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7617882451964917</v>
+        <v>0.6029995071173033</v>
       </c>
       <c r="G17">
-        <v>0.5971931311297567</v>
+        <v>0.4668426866455064</v>
       </c>
       <c r="H17">
-        <v>0.709032550133486</v>
+        <v>0.3369381865116026</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4986337996756163</v>
+        <v>1.540870310070602</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.342497605303754</v>
+        <v>0.5855423446603165</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5093834838041573</v>
+        <v>1.442883262364063</v>
       </c>
       <c r="C18">
-        <v>0.06334015126404324</v>
+        <v>0.1914976316820542</v>
       </c>
       <c r="D18">
-        <v>0.03973947756755081</v>
+        <v>0.08249187893984811</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.761070092682381</v>
+        <v>0.5943583624311302</v>
       </c>
       <c r="G18">
-        <v>0.5970138699255045</v>
+        <v>0.4608745093888302</v>
       </c>
       <c r="H18">
-        <v>0.7099286092477115</v>
+        <v>0.3358179637538399</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4872633400198936</v>
+        <v>1.501940206895824</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.346359023267631</v>
+        <v>0.594982471053882</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.505733955621821</v>
+        <v>1.430163755203495</v>
       </c>
       <c r="C19">
-        <v>0.06287072802152238</v>
+        <v>0.189976523850433</v>
       </c>
       <c r="D19">
-        <v>0.03955601488681992</v>
+        <v>0.08195962426998449</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7608357438929971</v>
+        <v>0.5914608503217025</v>
       </c>
       <c r="G19">
-        <v>0.5969610406477841</v>
+        <v>0.4588812414499159</v>
       </c>
       <c r="H19">
-        <v>0.710238072646419</v>
+        <v>0.3354539385534423</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4834138107190711</v>
+        <v>1.488772714213724</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.347675636044025</v>
+        <v>0.5982024287456387</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5221624674957184</v>
+        <v>1.487461685058463</v>
       </c>
       <c r="C20">
-        <v>0.06498190561369199</v>
+        <v>0.1968257896782148</v>
       </c>
       <c r="D20">
-        <v>0.04038086574193045</v>
+        <v>0.0843545232745555</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7619253424676486</v>
+        <v>0.6046123600510711</v>
       </c>
       <c r="G20">
-        <v>0.5972300460175006</v>
+        <v>0.4679604625178513</v>
       </c>
       <c r="H20">
-        <v>0.7088695946087853</v>
+        <v>0.3371528363422271</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5007383617446237</v>
+        <v>1.548082007074584</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.341787315683783</v>
+        <v>0.5838065231896827</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5774495660170089</v>
+        <v>1.681099259090075</v>
       </c>
       <c r="C21">
-        <v>0.07205257680190869</v>
+        <v>0.2199211110858386</v>
       </c>
       <c r="D21">
-        <v>0.04313895781415766</v>
+        <v>0.09239717896147681</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7661993080667173</v>
+        <v>0.6508633899220015</v>
       </c>
       <c r="G21">
-        <v>0.5986819823754104</v>
+        <v>0.5004739819613064</v>
       </c>
       <c r="H21">
-        <v>0.7046942666885201</v>
+        <v>0.3439671460478877</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5589662447198691</v>
+        <v>1.748398109787047</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.322644013853003</v>
+        <v>0.5371357752044652</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6136472499030958</v>
+        <v>1.808612837722137</v>
       </c>
       <c r="C22">
-        <v>0.07665657412995586</v>
+        <v>0.2350906081241391</v>
       </c>
       <c r="D22">
-        <v>0.04493145266142307</v>
+        <v>0.09765251309083567</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7694501300638166</v>
+        <v>0.6827518290889998</v>
       </c>
       <c r="G22">
-        <v>0.6000405446515202</v>
+        <v>0.5233416925605354</v>
       </c>
       <c r="H22">
-        <v>0.7022805051010721</v>
+        <v>0.349299819720656</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5970339004962852</v>
+        <v>1.880219356125679</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.310610773533121</v>
+        <v>0.5079594160274468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5943221274967527</v>
+        <v>1.740460430064331</v>
       </c>
       <c r="C23">
-        <v>0.07420091459050582</v>
+        <v>0.2269865473881794</v>
       </c>
       <c r="D23">
-        <v>0.04397569742967988</v>
+        <v>0.09484760850595109</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7676732011481988</v>
+        <v>0.6655722538000077</v>
       </c>
       <c r="G23">
-        <v>0.5992779007143554</v>
+        <v>0.5109806219968789</v>
       </c>
       <c r="H23">
-        <v>0.7035399403679463</v>
+        <v>0.3463695922895056</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5767154962776715</v>
+        <v>1.809772951597125</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.316989367545462</v>
+        <v>0.5234060648054406</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.521259949187538</v>
+        <v>1.484311226061237</v>
       </c>
       <c r="C24">
-        <v>0.06486605418915303</v>
+        <v>0.1964493829540999</v>
       </c>
       <c r="D24">
-        <v>0.04033561845225364</v>
+        <v>0.0842230260481216</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7618632021222851</v>
+        <v>0.6038826789959089</v>
       </c>
       <c r="G24">
-        <v>0.5972132143584759</v>
+        <v>0.4674546162396069</v>
       </c>
       <c r="H24">
-        <v>0.7089431554315411</v>
+        <v>0.3370555133059696</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4997868998043771</v>
+        <v>1.544821396943917</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.342108265294405</v>
+        <v>0.5845908400122859</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4427419971639779</v>
+        <v>1.211363561017578</v>
       </c>
       <c r="C25">
-        <v>0.05472510881656945</v>
+        <v>0.1637473555114752</v>
       </c>
       <c r="D25">
-        <v>0.03636702338749132</v>
+        <v>0.07274648319856425</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.757556512471723</v>
+        <v>0.5436960847368937</v>
       </c>
       <c r="G25">
-        <v>0.5967375323810842</v>
+        <v>0.4266868442493603</v>
       </c>
       <c r="H25">
-        <v>0.7161233506380995</v>
+        <v>0.3304382346231733</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4168750526334577</v>
+        <v>1.262121327246717</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.37125202053236</v>
+        <v>0.6558981415079144</v>
       </c>
       <c r="O25">
         <v>0</v>
